--- a/data/raw/election/voters-age-sex-education/2023/Batman.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Batman.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:28:35-20347574917" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="35">
   <si>
     <t>Batman</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>Sason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,16 +671,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,10 +1014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,52 +1033,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1118,14 +1132,14 @@
       <c r="F6" s="4">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
-        <v>10.664</v>
-      </c>
-      <c r="H6" s="4">
-        <v>18.661999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.6469999999999998</v>
+      <c r="G6" s="5">
+        <v>10664</v>
+      </c>
+      <c r="H6" s="5">
+        <v>18662</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2647</v>
       </c>
       <c r="J6" s="4">
         <v>20</v>
@@ -1136,8 +1150,8 @@
       <c r="L6" s="4">
         <v>298</v>
       </c>
-      <c r="M6" s="5">
-        <v>32.945</v>
+      <c r="M6" s="6">
+        <v>32945</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1157,14 +1171,14 @@
       <c r="F7" s="4">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
-        <v>10.574</v>
-      </c>
-      <c r="H7" s="4">
-        <v>18.346</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3.7709999999999999</v>
+      <c r="G7" s="5">
+        <v>10574</v>
+      </c>
+      <c r="H7" s="5">
+        <v>18346</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3771</v>
       </c>
       <c r="J7" s="4">
         <v>20</v>
@@ -1175,8 +1189,8 @@
       <c r="L7" s="4">
         <v>117</v>
       </c>
-      <c r="M7" s="5">
-        <v>33.648000000000003</v>
+      <c r="M7" s="6">
+        <v>33648</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1198,14 +1212,14 @@
       <c r="F8" s="4">
         <v>485</v>
       </c>
-      <c r="G8" s="4">
-        <v>5.6559999999999997</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7.468</v>
-      </c>
-      <c r="I8" s="4">
-        <v>6.9610000000000003</v>
+      <c r="G8" s="5">
+        <v>5656</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7468</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6961</v>
       </c>
       <c r="J8" s="4">
         <v>444</v>
@@ -1216,8 +1230,8 @@
       <c r="L8" s="4">
         <v>130</v>
       </c>
-      <c r="M8" s="5">
-        <v>21.946999999999999</v>
+      <c r="M8" s="6">
+        <v>21947</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1231,20 +1245,20 @@
       <c r="D9" s="4">
         <v>891</v>
       </c>
-      <c r="E9" s="4">
-        <v>1.268</v>
+      <c r="E9" s="5">
+        <v>1268</v>
       </c>
       <c r="F9" s="4">
         <v>732</v>
       </c>
-      <c r="G9" s="4">
-        <v>6.016</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5.0019999999999998</v>
-      </c>
-      <c r="I9" s="4">
-        <v>8.2370000000000001</v>
+      <c r="G9" s="5">
+        <v>6016</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5002</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8237</v>
       </c>
       <c r="J9" s="4">
         <v>486</v>
@@ -1255,8 +1269,8 @@
       <c r="L9" s="4">
         <v>154</v>
       </c>
-      <c r="M9" s="5">
-        <v>22.97</v>
+      <c r="M9" s="6">
+        <v>22970</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1275,20 +1289,20 @@
       <c r="E10" s="4">
         <v>453</v>
       </c>
-      <c r="F10" s="4">
-        <v>2.5190000000000001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2.875</v>
-      </c>
-      <c r="H10" s="4">
-        <v>6.415</v>
-      </c>
-      <c r="I10" s="4">
-        <v>7.0979999999999999</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1.0900000000000001</v>
+      <c r="F10" s="5">
+        <v>2519</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2875</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6415</v>
+      </c>
+      <c r="I10" s="5">
+        <v>7098</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1090</v>
       </c>
       <c r="K10" s="4">
         <v>20</v>
@@ -1296,8 +1310,8 @@
       <c r="L10" s="4">
         <v>92</v>
       </c>
-      <c r="M10" s="5">
-        <v>21.013000000000002</v>
+      <c r="M10" s="6">
+        <v>21013</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1308,23 +1322,23 @@
       <c r="C11" s="4">
         <v>669</v>
       </c>
-      <c r="D11" s="4">
-        <v>1.833</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3.6139999999999999</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H11" s="4">
-        <v>4.3630000000000004</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5.7210000000000001</v>
+      <c r="D11" s="5">
+        <v>1833</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1279</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3614</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2550</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4363</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5721</v>
       </c>
       <c r="J11" s="4">
         <v>666</v>
@@ -1335,8 +1349,8 @@
       <c r="L11" s="4">
         <v>199</v>
       </c>
-      <c r="M11" s="5">
-        <v>20.899000000000001</v>
+      <c r="M11" s="6">
+        <v>20899</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1355,20 +1369,20 @@
       <c r="E12" s="4">
         <v>945</v>
       </c>
-      <c r="F12" s="4">
-        <v>2.532</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5.3780000000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>4.57</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1.026</v>
+      <c r="F12" s="5">
+        <v>2532</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1705</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5378</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4570</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1026</v>
       </c>
       <c r="K12" s="4">
         <v>83</v>
@@ -1376,8 +1390,8 @@
       <c r="L12" s="4">
         <v>150</v>
       </c>
-      <c r="M12" s="5">
-        <v>16.777999999999999</v>
+      <c r="M12" s="6">
+        <v>16778</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1388,23 +1402,23 @@
       <c r="C13" s="4">
         <v>794</v>
       </c>
-      <c r="D13" s="4">
-        <v>1.476</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3.1680000000000001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.671</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3.6070000000000002</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.7</v>
+      <c r="D13" s="5">
+        <v>1476</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3168</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2191</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1671</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3607</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2700</v>
       </c>
       <c r="J13" s="4">
         <v>419</v>
@@ -1415,8 +1429,8 @@
       <c r="L13" s="4">
         <v>202</v>
       </c>
-      <c r="M13" s="5">
-        <v>16.254999999999999</v>
+      <c r="M13" s="6">
+        <v>16255</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1432,20 +1446,20 @@
       <c r="D14" s="4">
         <v>234</v>
       </c>
-      <c r="E14" s="4">
-        <v>1.452</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2.6219999999999999</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2.5329999999999999</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5.298</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.9769999999999999</v>
+      <c r="E14" s="5">
+        <v>1452</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2622</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2533</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5298</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2977</v>
       </c>
       <c r="J14" s="4">
         <v>897</v>
@@ -1456,8 +1470,8 @@
       <c r="L14" s="4">
         <v>150</v>
       </c>
-      <c r="M14" s="5">
-        <v>16.38</v>
+      <c r="M14" s="6">
+        <v>16380</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1465,26 +1479,26 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4">
-        <v>1.085</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.611</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.1749999999999998</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2.355</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.431</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.5569999999999999</v>
+      <c r="C15" s="5">
+        <v>1085</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1611</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4175</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1828</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2355</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3431</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1557</v>
       </c>
       <c r="J15" s="4">
         <v>242</v>
@@ -1495,8 +1509,8 @@
       <c r="L15" s="4">
         <v>166</v>
       </c>
-      <c r="M15" s="5">
-        <v>16.497</v>
+      <c r="M15" s="6">
+        <v>16497</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1512,20 +1526,20 @@
       <c r="D16" s="4">
         <v>139</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.119</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.9239999999999999</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3.86</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.0859999999999999</v>
+      <c r="E16" s="5">
+        <v>1119</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2055</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1924</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3860</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2086</v>
       </c>
       <c r="J16" s="4">
         <v>399</v>
@@ -1536,8 +1550,8 @@
       <c r="L16" s="4">
         <v>142</v>
       </c>
-      <c r="M16" s="5">
-        <v>11.887</v>
+      <c r="M16" s="6">
+        <v>11887</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1548,20 +1562,20 @@
       <c r="C17" s="4">
         <v>901</v>
       </c>
-      <c r="D17" s="4">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2.16</v>
+      <c r="D17" s="5">
+        <v>1132</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3227</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1378</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1749</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2160</v>
       </c>
       <c r="I17" s="4">
         <v>667</v>
@@ -1575,8 +1589,8 @@
       <c r="L17" s="4">
         <v>166</v>
       </c>
-      <c r="M17" s="5">
-        <v>11.462999999999999</v>
+      <c r="M17" s="6">
+        <v>11463</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1595,17 +1609,17 @@
       <c r="E18" s="4">
         <v>885</v>
       </c>
-      <c r="F18" s="4">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.903</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2.806</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.4119999999999999</v>
+      <c r="F18" s="5">
+        <v>1731</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1903</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2806</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1412</v>
       </c>
       <c r="J18" s="4">
         <v>166</v>
@@ -1616,8 +1630,8 @@
       <c r="L18" s="4">
         <v>115</v>
       </c>
-      <c r="M18" s="5">
-        <v>9.2870000000000008</v>
+      <c r="M18" s="6">
+        <v>9287</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1625,23 +1639,23 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.3559999999999999</v>
+      <c r="C19" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1261</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2356</v>
       </c>
       <c r="F19" s="4">
         <v>982</v>
       </c>
-      <c r="G19" s="4">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1.625</v>
+      <c r="G19" s="5">
+        <v>1128</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1625</v>
       </c>
       <c r="I19" s="4">
         <v>298</v>
@@ -1655,8 +1669,8 @@
       <c r="L19" s="4">
         <v>124</v>
       </c>
-      <c r="M19" s="5">
-        <v>8.85</v>
+      <c r="M19" s="6">
+        <v>8850</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1675,14 +1689,14 @@
       <c r="E20" s="4">
         <v>966</v>
       </c>
-      <c r="F20" s="4">
-        <v>1.355</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2.3940000000000001</v>
+      <c r="F20" s="5">
+        <v>1355</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1485</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2394</v>
       </c>
       <c r="I20" s="4">
         <v>897</v>
@@ -1696,8 +1710,8 @@
       <c r="L20" s="4">
         <v>82</v>
       </c>
-      <c r="M20" s="5">
-        <v>7.5410000000000004</v>
+      <c r="M20" s="6">
+        <v>7541</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1705,14 +1719,14 @@
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.2110000000000001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1.9750000000000001</v>
+      <c r="C21" s="5">
+        <v>1245</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1211</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1975</v>
       </c>
       <c r="F21" s="4">
         <v>612</v>
@@ -1735,8 +1749,8 @@
       <c r="L21" s="4">
         <v>152</v>
       </c>
-      <c r="M21" s="5">
-        <v>7.008</v>
+      <c r="M21" s="6">
+        <v>7008</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1761,8 +1775,8 @@
       <c r="G22" s="4">
         <v>882</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.48</v>
+      <c r="H22" s="5">
+        <v>1480</v>
       </c>
       <c r="I22" s="4">
         <v>513</v>
@@ -1776,8 +1790,8 @@
       <c r="L22" s="4">
         <v>75</v>
       </c>
-      <c r="M22" s="5">
-        <v>5.069</v>
+      <c r="M22" s="6">
+        <v>5069</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1785,14 +1799,14 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.3089999999999999</v>
+      <c r="C23" s="5">
+        <v>1309</v>
       </c>
       <c r="D23" s="4">
         <v>938</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.4890000000000001</v>
+      <c r="E23" s="5">
+        <v>1489</v>
       </c>
       <c r="F23" s="4">
         <v>344</v>
@@ -1815,8 +1829,8 @@
       <c r="L23" s="4">
         <v>95</v>
       </c>
-      <c r="M23" s="5">
-        <v>5.0140000000000002</v>
+      <c r="M23" s="6">
+        <v>5014</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1856,8 +1870,8 @@
       <c r="L24" s="4">
         <v>63</v>
       </c>
-      <c r="M24" s="5">
-        <v>3.9489999999999998</v>
+      <c r="M24" s="6">
+        <v>3949</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1865,8 +1879,8 @@
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.6</v>
+      <c r="C25" s="5">
+        <v>1600</v>
       </c>
       <c r="D25" s="4">
         <v>750</v>
@@ -1895,8 +1909,8 @@
       <c r="L25" s="4">
         <v>103</v>
       </c>
-      <c r="M25" s="5">
-        <v>3.956</v>
+      <c r="M25" s="6">
+        <v>3956</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1936,8 +1950,8 @@
       <c r="L26" s="4">
         <v>26</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.359</v>
+      <c r="M26" s="6">
+        <v>2359</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1945,8 +1959,8 @@
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
-        <v>1.7370000000000001</v>
+      <c r="C27" s="5">
+        <v>1737</v>
       </c>
       <c r="D27" s="4">
         <v>542</v>
@@ -1975,8 +1989,8 @@
       <c r="L27" s="4">
         <v>90</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.2189999999999999</v>
+      <c r="M27" s="6">
+        <v>3219</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2016,8 +2030,8 @@
       <c r="L28" s="4">
         <v>51</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.48</v>
+      <c r="M28" s="6">
+        <v>2480</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2025,8 +2039,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>3.444</v>
+      <c r="C29" s="5">
+        <v>3444</v>
       </c>
       <c r="D29" s="4">
         <v>516</v>
@@ -2055,54 +2069,54 @@
       <c r="L29" s="4">
         <v>164</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.5510000000000002</v>
+      <c r="M29" s="6">
+        <v>4551</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>15.79</v>
-      </c>
-      <c r="D30" s="5">
-        <v>15.646000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>31.231000000000002</v>
-      </c>
-      <c r="F30" s="5">
-        <v>26.898</v>
-      </c>
-      <c r="G30" s="5">
-        <v>58.104999999999997</v>
-      </c>
-      <c r="H30" s="5">
-        <v>95.65</v>
-      </c>
-      <c r="I30" s="5">
-        <v>52.829000000000001</v>
-      </c>
-      <c r="J30" s="5">
-        <v>6.1509999999999998</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>15790</v>
+      </c>
+      <c r="D30" s="6">
+        <v>15646</v>
+      </c>
+      <c r="E30" s="6">
+        <v>31231</v>
+      </c>
+      <c r="F30" s="6">
+        <v>26898</v>
+      </c>
+      <c r="G30" s="6">
+        <v>58105</v>
+      </c>
+      <c r="H30" s="6">
+        <v>95650</v>
+      </c>
+      <c r="I30" s="6">
+        <v>52829</v>
+      </c>
+      <c r="J30" s="6">
+        <v>6151</v>
+      </c>
+      <c r="K30" s="8">
         <v>559</v>
       </c>
-      <c r="L30" s="5">
-        <v>3.1059999999999999</v>
-      </c>
-      <c r="M30" s="5">
-        <v>305.96499999999997</v>
+      <c r="L30" s="6">
+        <v>3106</v>
+      </c>
+      <c r="M30" s="6">
+        <v>305965</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2159,8 +2173,8 @@
       <c r="G32" s="4">
         <v>941</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.246</v>
+      <c r="H32" s="5">
+        <v>1246</v>
       </c>
       <c r="I32" s="4">
         <v>145</v>
@@ -2174,8 +2188,8 @@
       <c r="L32" s="4">
         <v>29</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.4180000000000001</v>
+      <c r="M32" s="6">
+        <v>2418</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2198,8 +2212,8 @@
       <c r="G33" s="4">
         <v>958</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.081</v>
+      <c r="H33" s="5">
+        <v>1081</v>
       </c>
       <c r="I33" s="4">
         <v>223</v>
@@ -2213,8 +2227,8 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.3450000000000002</v>
+      <c r="M33" s="6">
+        <v>2345</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,8 +2268,8 @@
       <c r="L34" s="4">
         <v>7</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.5269999999999999</v>
+      <c r="M34" s="6">
+        <v>1527</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,8 +2307,8 @@
       <c r="L35" s="4">
         <v>7</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.21</v>
+      <c r="M35" s="6">
+        <v>1210</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2334,8 +2348,8 @@
       <c r="L36" s="4">
         <v>4</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.0820000000000001</v>
+      <c r="M36" s="6">
+        <v>1082</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2373,7 +2387,7 @@
       <c r="L37" s="4">
         <v>5</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>930</v>
       </c>
     </row>
@@ -2414,7 +2428,7 @@
       <c r="L38" s="4">
         <v>5</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>764</v>
       </c>
     </row>
@@ -2453,7 +2467,7 @@
       <c r="L39" s="4">
         <v>8</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>678</v>
       </c>
     </row>
@@ -2494,7 +2508,7 @@
       <c r="L40" s="4">
         <v>7</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="8">
         <v>766</v>
       </c>
     </row>
@@ -2533,7 +2547,7 @@
       <c r="L41" s="4">
         <v>5</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>835</v>
       </c>
     </row>
@@ -2574,7 +2588,7 @@
       <c r="L42" s="4">
         <v>8</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>625</v>
       </c>
     </row>
@@ -2613,7 +2627,7 @@
       <c r="L43" s="4">
         <v>5</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>699</v>
       </c>
     </row>
@@ -2654,7 +2668,7 @@
       <c r="L44" s="4">
         <v>14</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>579</v>
       </c>
     </row>
@@ -2693,7 +2707,7 @@
       <c r="L45" s="4">
         <v>6</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="8">
         <v>532</v>
       </c>
     </row>
@@ -2734,7 +2748,7 @@
       <c r="L46" s="4">
         <v>7</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="8">
         <v>529</v>
       </c>
     </row>
@@ -2773,7 +2787,7 @@
       <c r="L47" s="4">
         <v>14</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="8">
         <v>496</v>
       </c>
     </row>
@@ -2814,7 +2828,7 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="8">
         <v>395</v>
       </c>
     </row>
@@ -2853,7 +2867,7 @@
       <c r="L49" s="4">
         <v>8</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="8">
         <v>370</v>
       </c>
     </row>
@@ -2894,7 +2908,7 @@
       <c r="L50" s="4">
         <v>6</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="8">
         <v>324</v>
       </c>
     </row>
@@ -2933,7 +2947,7 @@
       <c r="L51" s="4">
         <v>13</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>394</v>
       </c>
     </row>
@@ -2974,7 +2988,7 @@
       <c r="L52" s="4">
         <v>2</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>237</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
       <c r="L53" s="4">
         <v>6</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>339</v>
       </c>
     </row>
@@ -3054,7 +3068,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>262</v>
       </c>
     </row>
@@ -3093,7 +3107,7 @@
       <c r="L55" s="4">
         <v>13</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
         <v>453</v>
       </c>
     </row>
@@ -3101,46 +3115,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>2.214</v>
-      </c>
-      <c r="F56" s="5">
-        <v>2.081</v>
-      </c>
-      <c r="G56" s="5">
-        <v>3.8919999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>5.7830000000000004</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.9330000000000001</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>1160</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1368</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2214</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2081</v>
+      </c>
+      <c r="G56" s="6">
+        <v>3892</v>
+      </c>
+      <c r="H56" s="6">
+        <v>5783</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1933</v>
+      </c>
+      <c r="J56" s="8">
         <v>162</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>10</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>186</v>
       </c>
-      <c r="M56" s="5">
-        <v>18.789000000000001</v>
+      <c r="M56" s="6">
+        <v>18789</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3212,8 +3226,8 @@
       <c r="L58" s="4">
         <v>17</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.526</v>
+      <c r="M58" s="6">
+        <v>1526</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3251,8 +3265,8 @@
       <c r="L59" s="4">
         <v>4</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.365</v>
+      <c r="M59" s="6">
+        <v>1365</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3292,7 +3306,7 @@
       <c r="L60" s="4">
         <v>7</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>963</v>
       </c>
     </row>
@@ -3331,7 +3345,7 @@
       <c r="L61" s="4">
         <v>6</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>807</v>
       </c>
     </row>
@@ -3372,7 +3386,7 @@
       <c r="L62" s="4">
         <v>8</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>706</v>
       </c>
     </row>
@@ -3411,7 +3425,7 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>581</v>
       </c>
     </row>
@@ -3452,7 +3466,7 @@
       <c r="L64" s="4">
         <v>6</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>494</v>
       </c>
     </row>
@@ -3491,7 +3505,7 @@
       <c r="L65" s="4">
         <v>2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>430</v>
       </c>
     </row>
@@ -3532,7 +3546,7 @@
       <c r="L66" s="4">
         <v>6</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>485</v>
       </c>
     </row>
@@ -3571,7 +3585,7 @@
       <c r="L67" s="4">
         <v>9</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>511</v>
       </c>
     </row>
@@ -3612,7 +3626,7 @@
       <c r="L68" s="4">
         <v>11</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>480</v>
       </c>
     </row>
@@ -3651,7 +3665,7 @@
       <c r="L69" s="4">
         <v>11</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>504</v>
       </c>
     </row>
@@ -3692,7 +3706,7 @@
       <c r="L70" s="4">
         <v>9</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>489</v>
       </c>
     </row>
@@ -3731,7 +3745,7 @@
       <c r="L71" s="4">
         <v>5</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>403</v>
       </c>
     </row>
@@ -3772,7 +3786,7 @@
       <c r="L72" s="4">
         <v>1</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>393</v>
       </c>
     </row>
@@ -3811,7 +3825,7 @@
       <c r="L73" s="4">
         <v>5</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>361</v>
       </c>
     </row>
@@ -3852,7 +3866,7 @@
       <c r="L74" s="4">
         <v>3</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>305</v>
       </c>
     </row>
@@ -3891,7 +3905,7 @@
       <c r="L75" s="4">
         <v>7</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>309</v>
       </c>
     </row>
@@ -3932,7 +3946,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>264</v>
       </c>
     </row>
@@ -3971,7 +3985,7 @@
       <c r="L77" s="4">
         <v>11</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>324</v>
       </c>
     </row>
@@ -4012,7 +4026,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>256</v>
       </c>
     </row>
@@ -4051,7 +4065,7 @@
       <c r="L79" s="4">
         <v>4</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>335</v>
       </c>
     </row>
@@ -4092,7 +4106,7 @@
       <c r="L80" s="4">
         <v>3</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>403</v>
       </c>
     </row>
@@ -4131,7 +4145,7 @@
       <c r="L81" s="4">
         <v>14</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>597</v>
       </c>
     </row>
@@ -4139,46 +4153,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.331</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>1331</v>
+      </c>
+      <c r="D82" s="8">
         <v>913</v>
       </c>
-      <c r="E82" s="5">
-        <v>2.0579999999999998</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>2058</v>
+      </c>
+      <c r="F82" s="8">
         <v>976</v>
       </c>
-      <c r="G82" s="5">
-        <v>2.367</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.8889999999999998</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.458</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="G82" s="6">
+        <v>2367</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3889</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1458</v>
+      </c>
+      <c r="J82" s="8">
         <v>138</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>4</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>157</v>
       </c>
-      <c r="M82" s="5">
-        <v>13.291</v>
+      <c r="M82" s="6">
+        <v>13291</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4250,7 +4264,7 @@
       <c r="L84" s="4">
         <v>8</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="8">
         <v>519</v>
       </c>
     </row>
@@ -4289,7 +4303,7 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>568</v>
       </c>
     </row>
@@ -4330,7 +4344,7 @@
       <c r="L86" s="4">
         <v>2</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>393</v>
       </c>
     </row>
@@ -4369,7 +4383,7 @@
       <c r="L87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>343</v>
       </c>
     </row>
@@ -4410,7 +4424,7 @@
       <c r="L88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>352</v>
       </c>
     </row>
@@ -4449,7 +4463,7 @@
       <c r="L89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>243</v>
       </c>
     </row>
@@ -4490,7 +4504,7 @@
       <c r="L90" s="4">
         <v>2</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>218</v>
       </c>
     </row>
@@ -4529,7 +4543,7 @@
       <c r="L91" s="4">
         <v>1</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>210</v>
       </c>
     </row>
@@ -4570,7 +4584,7 @@
       <c r="L92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>202</v>
       </c>
     </row>
@@ -4609,7 +4623,7 @@
       <c r="L93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>212</v>
       </c>
     </row>
@@ -4650,7 +4664,7 @@
       <c r="L94" s="4">
         <v>6</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>203</v>
       </c>
     </row>
@@ -4689,7 +4703,7 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>190</v>
       </c>
     </row>
@@ -4730,7 +4744,7 @@
       <c r="L96" s="4">
         <v>2</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>163</v>
       </c>
     </row>
@@ -4769,7 +4783,7 @@
       <c r="L97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>190</v>
       </c>
     </row>
@@ -4810,7 +4824,7 @@
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>164</v>
       </c>
     </row>
@@ -4849,7 +4863,7 @@
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>144</v>
       </c>
     </row>
@@ -4890,7 +4904,7 @@
       <c r="L100" s="4">
         <v>2</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>112</v>
       </c>
     </row>
@@ -4929,7 +4943,7 @@
       <c r="L101" s="4">
         <v>2</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>126</v>
       </c>
     </row>
@@ -4970,7 +4984,7 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>111</v>
       </c>
     </row>
@@ -5009,7 +5023,7 @@
       <c r="L103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>91</v>
       </c>
     </row>
@@ -5050,7 +5064,7 @@
       <c r="L104" s="4">
         <v>1</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>80</v>
       </c>
     </row>
@@ -5089,7 +5103,7 @@
       <c r="L105" s="4">
         <v>2</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>110</v>
       </c>
     </row>
@@ -5130,7 +5144,7 @@
       <c r="L106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>78</v>
       </c>
     </row>
@@ -5169,7 +5183,7 @@
       <c r="L107" s="4">
         <v>1</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>120</v>
       </c>
     </row>
@@ -5177,46 +5191,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>332</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <v>310</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="8">
         <v>510</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="8">
         <v>433</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="8">
         <v>920</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="I108" s="5">
+      <c r="H108" s="6">
+        <v>1749</v>
+      </c>
+      <c r="I108" s="8">
         <v>775</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="8">
         <v>79</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="8">
         <v>2</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>32</v>
       </c>
-      <c r="M108" s="5">
-        <v>5.1420000000000003</v>
+      <c r="M108" s="6">
+        <v>5142</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5270,11 +5284,11 @@
       <c r="F110" s="4">
         <v>1</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.873</v>
-      </c>
-      <c r="H110" s="4">
-        <v>2.4900000000000002</v>
+      <c r="G110" s="5">
+        <v>1873</v>
+      </c>
+      <c r="H110" s="5">
+        <v>2490</v>
       </c>
       <c r="I110" s="4">
         <v>304</v>
@@ -5288,8 +5302,8 @@
       <c r="L110" s="4">
         <v>43</v>
       </c>
-      <c r="M110" s="5">
-        <v>4.8170000000000002</v>
+      <c r="M110" s="6">
+        <v>4817</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5309,11 +5323,11 @@
       <c r="F111" s="4">
         <v>6</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>2.367</v>
+      <c r="G111" s="5">
+        <v>1632</v>
+      </c>
+      <c r="H111" s="5">
+        <v>2367</v>
       </c>
       <c r="I111" s="4">
         <v>407</v>
@@ -5327,8 +5341,8 @@
       <c r="L111" s="4">
         <v>3</v>
       </c>
-      <c r="M111" s="5">
-        <v>4.5640000000000001</v>
+      <c r="M111" s="6">
+        <v>4564</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5353,8 +5367,8 @@
       <c r="G112" s="4">
         <v>828</v>
       </c>
-      <c r="H112" s="4">
-        <v>1.135</v>
+      <c r="H112" s="5">
+        <v>1135</v>
       </c>
       <c r="I112" s="4">
         <v>692</v>
@@ -5368,8 +5382,8 @@
       <c r="L112" s="4">
         <v>6</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.85</v>
+      <c r="M112" s="6">
+        <v>2850</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5407,8 +5421,8 @@
       <c r="L113" s="4">
         <v>4</v>
       </c>
-      <c r="M113" s="5">
-        <v>2.6819999999999999</v>
+      <c r="M113" s="6">
+        <v>2682</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5448,8 +5462,8 @@
       <c r="L114" s="4">
         <v>2</v>
       </c>
-      <c r="M114" s="5">
-        <v>2.3050000000000002</v>
+      <c r="M114" s="6">
+        <v>2305</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,8 +5501,8 @@
       <c r="L115" s="4">
         <v>13</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.1019999999999999</v>
+      <c r="M115" s="6">
+        <v>2102</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,8 +5542,8 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.5069999999999999</v>
+      <c r="M116" s="6">
+        <v>1507</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5567,8 +5581,8 @@
       <c r="L117" s="4">
         <v>6</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.385</v>
+      <c r="M117" s="6">
+        <v>1385</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5608,8 +5622,8 @@
       <c r="L118" s="4">
         <v>7</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.762</v>
+      <c r="M118" s="6">
+        <v>1762</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5647,8 +5661,8 @@
       <c r="L119" s="4">
         <v>15</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.881</v>
+      <c r="M119" s="6">
+        <v>1881</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5688,8 +5702,8 @@
       <c r="L120" s="4">
         <v>9</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.4</v>
+      <c r="M120" s="6">
+        <v>1400</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5727,8 +5741,8 @@
       <c r="L121" s="4">
         <v>4</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.33</v>
+      <c r="M121" s="6">
+        <v>1330</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5768,8 +5782,8 @@
       <c r="L122" s="4">
         <v>6</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.111</v>
+      <c r="M122" s="6">
+        <v>1111</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5807,8 +5821,8 @@
       <c r="L123" s="4">
         <v>8</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.0669999999999999</v>
+      <c r="M123" s="6">
+        <v>1067</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5848,8 +5862,8 @@
       <c r="L124" s="4">
         <v>1</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.085</v>
+      <c r="M124" s="6">
+        <v>1085</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5887,7 +5901,7 @@
       <c r="L125" s="4">
         <v>10</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>905</v>
       </c>
     </row>
@@ -5928,7 +5942,7 @@
       <c r="L126" s="4">
         <v>2</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>740</v>
       </c>
     </row>
@@ -5967,7 +5981,7 @@
       <c r="L127" s="4">
         <v>5</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>658</v>
       </c>
     </row>
@@ -6008,7 +6022,7 @@
       <c r="L128" s="4">
         <v>2</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>528</v>
       </c>
     </row>
@@ -6047,7 +6061,7 @@
       <c r="L129" s="4">
         <v>9</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>657</v>
       </c>
     </row>
@@ -6088,7 +6102,7 @@
       <c r="L130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>305</v>
       </c>
     </row>
@@ -6127,7 +6141,7 @@
       <c r="L131" s="4">
         <v>13</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>577</v>
       </c>
     </row>
@@ -6168,7 +6182,7 @@
       <c r="L132" s="4">
         <v>3</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>410</v>
       </c>
     </row>
@@ -6207,7 +6221,7 @@
       <c r="L133" s="4">
         <v>17</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>855</v>
       </c>
     </row>
@@ -6215,46 +6229,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="E134" s="5">
-        <v>4.55</v>
-      </c>
-      <c r="F134" s="5">
-        <v>3.403</v>
-      </c>
-      <c r="G134" s="5">
-        <v>7.8280000000000003</v>
-      </c>
-      <c r="H134" s="5">
-        <v>12.199</v>
-      </c>
-      <c r="I134" s="5">
-        <v>4.1029999999999998</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>2065</v>
+      </c>
+      <c r="D134" s="6">
+        <v>2733</v>
+      </c>
+      <c r="E134" s="6">
+        <v>4550</v>
+      </c>
+      <c r="F134" s="6">
+        <v>3403</v>
+      </c>
+      <c r="G134" s="6">
+        <v>7828</v>
+      </c>
+      <c r="H134" s="6">
+        <v>12199</v>
+      </c>
+      <c r="I134" s="6">
+        <v>4103</v>
+      </c>
+      <c r="J134" s="8">
         <v>402</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>8</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>192</v>
       </c>
-      <c r="M134" s="5">
-        <v>37.482999999999997</v>
+      <c r="M134" s="6">
+        <v>37483</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6308,11 +6322,11 @@
       <c r="F136" s="4">
         <v>1</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="H136" s="4">
-        <v>1.123</v>
+      <c r="G136" s="5">
+        <v>1017</v>
+      </c>
+      <c r="H136" s="5">
+        <v>1123</v>
       </c>
       <c r="I136" s="4">
         <v>132</v>
@@ -6326,8 +6340,8 @@
       <c r="L136" s="4">
         <v>30</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.4300000000000002</v>
+      <c r="M136" s="6">
+        <v>2430</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6365,8 +6379,8 @@
       <c r="L137" s="4">
         <v>4</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.1920000000000002</v>
+      <c r="M137" s="6">
+        <v>2192</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,8 +6420,8 @@
       <c r="L138" s="4">
         <v>4</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.6040000000000001</v>
+      <c r="M138" s="6">
+        <v>1604</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6445,8 +6459,8 @@
       <c r="L139" s="4">
         <v>5</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.27</v>
+      <c r="M139" s="6">
+        <v>1270</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6486,8 +6500,8 @@
       <c r="L140" s="4">
         <v>5</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.3129999999999999</v>
+      <c r="M140" s="6">
+        <v>1313</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6525,8 +6539,8 @@
       <c r="L141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.0109999999999999</v>
+      <c r="M141" s="6">
+        <v>1011</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6566,7 +6580,7 @@
       <c r="L142" s="4">
         <v>9</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="8">
         <v>869</v>
       </c>
     </row>
@@ -6605,7 +6619,7 @@
       <c r="L143" s="4">
         <v>4</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="8">
         <v>766</v>
       </c>
     </row>
@@ -6646,7 +6660,7 @@
       <c r="L144" s="4">
         <v>10</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="8">
         <v>820</v>
       </c>
     </row>
@@ -6685,7 +6699,7 @@
       <c r="L145" s="4">
         <v>8</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="8">
         <v>757</v>
       </c>
     </row>
@@ -6726,7 +6740,7 @@
       <c r="L146" s="4">
         <v>4</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="8">
         <v>618</v>
       </c>
     </row>
@@ -6765,7 +6779,7 @@
       <c r="L147" s="4">
         <v>8</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="8">
         <v>533</v>
       </c>
     </row>
@@ -6806,7 +6820,7 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="8">
         <v>703</v>
       </c>
     </row>
@@ -6845,7 +6859,7 @@
       <c r="L149" s="4">
         <v>6</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="8">
         <v>528</v>
       </c>
     </row>
@@ -6886,7 +6900,7 @@
       <c r="L150" s="4">
         <v>2</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="8">
         <v>528</v>
       </c>
     </row>
@@ -6925,7 +6939,7 @@
       <c r="L151" s="4">
         <v>1</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="8">
         <v>477</v>
       </c>
     </row>
@@ -6966,7 +6980,7 @@
       <c r="L152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="8">
         <v>354</v>
       </c>
     </row>
@@ -7005,7 +7019,7 @@
       <c r="L153" s="4">
         <v>3</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="8">
         <v>325</v>
       </c>
     </row>
@@ -7046,7 +7060,7 @@
       <c r="L154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="8">
         <v>227</v>
       </c>
     </row>
@@ -7085,7 +7099,7 @@
       <c r="L155" s="4">
         <v>3</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="8">
         <v>344</v>
       </c>
     </row>
@@ -7126,7 +7140,7 @@
       <c r="L156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>199</v>
       </c>
     </row>
@@ -7165,7 +7179,7 @@
       <c r="L157" s="4">
         <v>4</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>298</v>
       </c>
     </row>
@@ -7206,7 +7220,7 @@
       <c r="L158" s="4">
         <v>2</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>247</v>
       </c>
     </row>
@@ -7245,7 +7259,7 @@
       <c r="L159" s="4">
         <v>3</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="8">
         <v>477</v>
       </c>
     </row>
@@ -7253,50 +7267,60 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.96</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.931</v>
-      </c>
-      <c r="H160" s="5">
-        <v>6.0339999999999998</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.8979999999999999</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>1382</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1293</v>
+      </c>
+      <c r="E160" s="6">
+        <v>2102</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1960</v>
+      </c>
+      <c r="G160" s="6">
+        <v>3931</v>
+      </c>
+      <c r="H160" s="6">
+        <v>6034</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1898</v>
+      </c>
+      <c r="J160" s="8">
         <v>167</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>3</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>120</v>
       </c>
-      <c r="M160" s="5">
-        <v>18.89</v>
+      <c r="M160" s="6">
+        <v>18890</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
